--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/fysico-chemische-eigenschap/fysico-chemische-eigenschap.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/fysico-chemische-eigenschap/fysico-chemische-eigenschap.xlsx
@@ -460,7 +460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D2" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0001|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0003|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0004|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0005|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0006|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0007|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0008|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0009|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0011|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0012|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0013|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0014|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0015|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0016|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0017|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0018|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0019|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0020|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0021|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0022|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0023|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0024|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0025|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0026|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0027|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0028|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0029|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0030|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0031|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0032|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0033|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0036|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0037|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0038|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0039|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0040|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0041|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0042|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0043|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0044|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0045|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0046|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0047|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0048|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0049|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0051|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0052|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0054|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0055|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0056|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0057|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0058|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0059|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0060|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0061|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0062|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0063|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0064|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0065|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0066|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0067|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0068|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0069|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0070|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0071|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0072|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0073|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0074|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0075|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0077|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0078|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0079|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0080|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0081|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0082|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0084|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0085|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0086|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0087|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0088|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0089|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0090|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0091|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0092|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0093|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0094|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0095|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0096|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0097|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0098|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0099|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0100|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0101|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0102|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0103|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0104|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0105|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0106|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0107|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0108|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0109|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0110|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0111|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0112|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0113|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0114|https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0115</v>
@@ -510,7 +510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D3" t="str">
         <v>null</v>
@@ -522,7 +522,7 @@
         <v>Gemiddeld</v>
       </c>
       <c r="G3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H3" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -560,7 +560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D4" t="str">
         <v>null</v>
@@ -572,7 +572,7 @@
         <v>QI</v>
       </c>
       <c r="G4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H4" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -610,7 +610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D5" t="str">
         <v>null</v>
@@ -622,7 +622,7 @@
         <v>d</v>
       </c>
       <c r="G5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H5" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/6229|http://www.eionet.europa.eu/gemet/concept/11116</v>
@@ -660,7 +660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D6" t="str">
         <v>null</v>
@@ -672,7 +672,7 @@
         <v>Secchi</v>
       </c>
       <c r="G6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H6" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -710,7 +710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D7" t="str">
         <v>null</v>
@@ -722,7 +722,7 @@
         <v>DR</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H7" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -760,7 +760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D8" t="str">
         <v>null</v>
@@ -810,7 +810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D9" t="str">
         <v>null</v>
@@ -860,7 +860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D10" t="str">
         <v>null</v>
@@ -910,7 +910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D11" t="str">
         <v>null</v>
@@ -960,7 +960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D12" t="str">
         <v>null</v>
@@ -972,7 +972,7 @@
         <v>GR</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H12" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1010,7 +1010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D13" t="str">
         <v>null</v>
@@ -1022,7 +1022,7 @@
         <v>GV</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H13" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1060,7 +1060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D14" t="str">
         <v>null</v>
@@ -1110,7 +1110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D15" t="str">
         <v>null</v>
@@ -1160,7 +1160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D16" t="str">
         <v>null</v>
@@ -1172,7 +1172,7 @@
         <v>H t</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H16" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1210,7 +1210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D17" t="str">
         <v>null</v>
@@ -1222,7 +1222,7 @@
         <v>IB</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H17" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1260,7 +1260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D18" t="str">
         <v>null</v>
@@ -1272,7 +1272,7 @@
         <v>IS</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H18" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1310,7 +1310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D19" t="str">
         <v>null</v>
@@ -1322,7 +1322,7 @@
         <v>Kleur</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H19" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1360,7 +1360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D20" t="str">
         <v>null</v>
@@ -1410,7 +1410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D21" t="str">
         <v>null</v>
@@ -1460,7 +1460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D22" t="str">
         <v>null</v>
@@ -1510,7 +1510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D23" t="str">
         <v>null</v>
@@ -1560,7 +1560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D24" t="str">
         <v>null</v>
@@ -1572,7 +1572,7 @@
         <v>Neerslag</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H24" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1610,7 +1610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D25" t="str">
         <v>null</v>
@@ -1660,7 +1660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D26" t="str">
         <v>null</v>
@@ -1710,7 +1710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D27" t="str">
         <v>null</v>
@@ -1722,7 +1722,7 @@
         <v>Eh</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H27" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1760,7 +1760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D28" t="str">
         <v>null</v>
@@ -1772,7 +1772,7 @@
         <v>Reuk</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H28" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1810,7 +1810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D29" t="str">
         <v>null</v>
@@ -1822,7 +1822,7 @@
         <v>Salin.</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H29" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1860,7 +1860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D30" t="str">
         <v>null</v>
@@ -1872,7 +1872,7 @@
         <v>Smaak</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H30" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1910,7 +1910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D31" t="str">
         <v>null</v>
@@ -1922,7 +1922,7 @@
         <v>T</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H31" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -1960,7 +1960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D32" t="str">
         <v>null</v>
@@ -1972,7 +1972,7 @@
         <v>Turb.</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H32" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2010,7 +2010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D33" t="str">
         <v>null</v>
@@ -2022,7 +2022,7 @@
         <v>Turb. ps</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H33" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2060,7 +2060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D34" t="str">
         <v>null</v>
@@ -2072,7 +2072,7 @@
         <v>VP</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H34" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2110,7 +2110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D35" t="str">
         <v>null</v>
@@ -2122,7 +2122,7 @@
         <v>Water</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H35" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2160,7 +2160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D36" t="str">
         <v>null</v>
@@ -2172,7 +2172,7 @@
         <v>ZS afm.</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H36" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2210,7 +2210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D37" t="str">
         <v>null</v>
@@ -2222,7 +2222,7 @@
         <v>nSE</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H37" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2260,7 +2260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D38" t="str">
         <v>null</v>
@@ -2272,7 +2272,7 @@
         <v>BZV5</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H38" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2310,7 +2310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D39" t="str">
         <v>null</v>
@@ -2322,7 +2322,7 @@
         <v>CZV</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H39" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2360,7 +2360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D40" t="str">
         <v>null</v>
@@ -2372,7 +2372,7 @@
         <v>CZV f</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H40" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2410,7 +2410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D41" t="str">
         <v>null</v>
@@ -2422,7 +2422,7 @@
         <v>KW</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H41" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2460,7 +2460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D42" t="str">
         <v>null</v>
@@ -2472,7 +2472,7 @@
         <v>Alpha</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H42" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2510,7 +2510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D43" t="str">
         <v>null</v>
@@ -2522,7 +2522,7 @@
         <v>Beta</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H43" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2560,7 +2560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
@@ -2572,7 +2572,7 @@
         <v>dil.F</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H44" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2610,7 +2610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
@@ -2622,7 +2622,7 @@
         <v>Rot</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H45" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2660,7 +2660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
@@ -2672,7 +2672,7 @@
         <v>Sp.opp.</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H46" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2710,7 +2710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
@@ -2760,7 +2760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
@@ -2772,7 +2772,7 @@
         <v>Dagen</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H48" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2810,7 +2810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
@@ -2822,7 +2822,7 @@
         <v>Vol</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H49" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2860,7 +2860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
@@ -2910,7 +2910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D51" t="str">
         <v>null</v>
@@ -2922,7 +2922,7 @@
         <v>Rad.act.</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H51" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -2960,7 +2960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D52" t="str">
         <v>null</v>
@@ -2972,7 +2972,7 @@
         <v>Q</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H52" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3010,7 +3010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D53" t="str">
         <v>null</v>
@@ -3060,7 +3060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D54" t="str">
         <v>null</v>
@@ -3110,7 +3110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D55" t="str">
         <v>null</v>
@@ -3160,7 +3160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D56" t="str">
         <v>null</v>
@@ -3210,7 +3210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D57" t="str">
         <v>null</v>
@@ -3222,7 +3222,7 @@
         <v>FPFV</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H57" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3260,7 +3260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D58" t="str">
         <v>null</v>
@@ -3310,7 +3310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D59" t="str">
         <v>null</v>
@@ -3360,7 +3360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D60" t="str">
         <v>null</v>
@@ -3410,7 +3410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D61" t="str">
         <v>null</v>
@@ -3422,7 +3422,7 @@
         <v>Straling uv-A</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H61" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3460,7 +3460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D62" t="str">
         <v>null</v>
@@ -3472,7 +3472,7 @@
         <v>Straling n</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H62" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3510,7 +3510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D63" t="str">
         <v>null</v>
@@ -3522,7 +3522,7 @@
         <v>Luchtdruk sh</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H63" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3560,7 +3560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D64" t="str">
         <v>null</v>
@@ -3572,7 +3572,7 @@
         <v>Rel.vocht</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H64" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3610,7 +3610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D65" t="str">
         <v>null</v>
@@ -3622,7 +3622,7 @@
         <v>Zon t</v>
       </c>
       <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H65" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3660,7 +3660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D66" t="str">
         <v>null</v>
@@ -3672,7 +3672,7 @@
         <v>DD</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H66" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3710,7 +3710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D67" t="str">
         <v>null</v>
@@ -3722,7 +3722,7 @@
         <v>VM</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H67" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3760,7 +3760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D68" t="str">
         <v>null</v>
@@ -3772,7 +3772,7 @@
         <v>FF</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H68" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3810,7 +3810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D69" t="str">
         <v>null</v>
@@ -3822,7 +3822,7 @@
         <v>Lengte</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H69" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3860,7 +3860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D70" t="str">
         <v>null</v>
@@ -3872,7 +3872,7 @@
         <v>Breedte</v>
       </c>
       <c r="G70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H70" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3910,7 +3910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D71" t="str">
         <v>null</v>
@@ -3922,7 +3922,7 @@
         <v>Diepte</v>
       </c>
       <c r="G71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H71" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -3960,7 +3960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D72" t="str">
         <v>null</v>
@@ -3972,7 +3972,7 @@
         <v>Dikte</v>
       </c>
       <c r="G72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H72" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4010,7 +4010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D73" t="str">
         <v>null</v>
@@ -4022,7 +4022,7 @@
         <v>Dauwpunt</v>
       </c>
       <c r="G73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H73" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4060,7 +4060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D74" t="str">
         <v>null</v>
@@ -4072,7 +4072,7 @@
         <v>Tv</v>
       </c>
       <c r="G74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H74" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4110,7 +4110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D75" t="str">
         <v>null</v>
@@ -4122,7 +4122,7 @@
         <v>H+</v>
       </c>
       <c r="G75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H75" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4160,7 +4160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D76" t="str">
         <v>null</v>
@@ -4172,7 +4172,7 @@
         <v>Straling uv-B</v>
       </c>
       <c r="G76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H76" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4210,7 +4210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D77" t="str">
         <v>null</v>
@@ -4222,7 +4222,7 @@
         <v>d13C</v>
       </c>
       <c r="G77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H77" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4260,7 +4260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D78" t="str">
         <v>null</v>
@@ -4272,7 +4272,7 @@
         <v>d15N</v>
       </c>
       <c r="G78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H78" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4310,7 +4310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D79" t="str">
         <v>null</v>
@@ -4360,7 +4360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D80" t="str">
         <v>null</v>
@@ -4372,7 +4372,7 @@
         <v>Gewicht</v>
       </c>
       <c r="G80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H80" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4410,7 +4410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D81" t="str">
         <v>null</v>
@@ -4422,7 +4422,7 @@
         <v>BioDegr</v>
       </c>
       <c r="G81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H81" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4460,7 +4460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D82" t="str">
         <v>null</v>
@@ -4472,7 +4472,7 @@
         <v>BZV5 rendement</v>
       </c>
       <c r="G82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H82" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4510,7 +4510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D83" t="str">
         <v>null</v>
@@ -4522,7 +4522,7 @@
         <v>CZV rendement</v>
       </c>
       <c r="G83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H83" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4560,7 +4560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D84" t="str">
         <v>null</v>
@@ -4572,7 +4572,7 @@
         <v>N t rendement</v>
       </c>
       <c r="G84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H84" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4610,7 +4610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D85" t="str">
         <v>null</v>
@@ -4622,7 +4622,7 @@
         <v>Fol h2o_vlucht</v>
       </c>
       <c r="G85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H85" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4660,7 +4660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D86" t="str">
         <v>null</v>
@@ -4672,7 +4672,7 @@
         <v>CZV/BZV</v>
       </c>
       <c r="G86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H86" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4710,7 +4710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D87" t="str">
         <v>null</v>
@@ -4722,7 +4722,7 @@
         <v>BZV/N</v>
       </c>
       <c r="G87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H87" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4760,7 +4760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D88" t="str">
         <v>null</v>
@@ -4772,7 +4772,7 @@
         <v>BZV/P</v>
       </c>
       <c r="G88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H88" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4810,7 +4810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D89" t="str">
         <v>null</v>
@@ -4822,7 +4822,7 @@
         <v>CZV/N</v>
       </c>
       <c r="G89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H89" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -4860,7 +4860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D90" t="str">
         <v>null</v>
@@ -4910,7 +4910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D91" t="str">
         <v>null</v>
@@ -4960,7 +4960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D92" t="str">
         <v>null</v>
@@ -4972,7 +4972,7 @@
         <v>Bem verschil</v>
       </c>
       <c r="G92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H92" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5010,7 +5010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D93" t="str">
         <v>null</v>
@@ -5022,7 +5022,7 @@
         <v>Bem gem</v>
       </c>
       <c r="G93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H93" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5060,7 +5060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D94" t="str">
         <v>null</v>
@@ -5072,7 +5072,7 @@
         <v>NC10-20</v>
       </c>
       <c r="G94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H94" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5110,7 +5110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D95" t="str">
         <v>null</v>
@@ -5122,7 +5122,7 @@
         <v>NC20-30</v>
       </c>
       <c r="G95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H95" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5160,7 +5160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D96" t="str">
         <v>null</v>
@@ -5172,7 +5172,7 @@
         <v>NC30-50</v>
       </c>
       <c r="G96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H96" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5210,7 +5210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D97" t="str">
         <v>null</v>
@@ -5222,7 +5222,7 @@
         <v>NC50-70</v>
       </c>
       <c r="G97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H97" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5260,7 +5260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D98" t="str">
         <v>null</v>
@@ -5272,7 +5272,7 @@
         <v>NC70-100</v>
       </c>
       <c r="G98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H98" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5310,7 +5310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D99" t="str">
         <v>null</v>
@@ -5322,7 +5322,7 @@
         <v>NC100-200</v>
       </c>
       <c r="G99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H99" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5360,7 +5360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D100" t="str">
         <v>null</v>
@@ -5372,7 +5372,7 @@
         <v>NC200-500</v>
       </c>
       <c r="G100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H100" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5410,7 +5410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D101" t="str">
         <v>null</v>
@@ -5422,7 +5422,7 @@
         <v>NC200-1000</v>
       </c>
       <c r="G101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H101" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -5460,7 +5460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D102" t="str">
         <v>null</v>
@@ -5510,7 +5510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D103" t="str">
         <v>null</v>
@@ -5560,7 +5560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D104" t="str">
         <v>null</v>
@@ -5610,7 +5610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D105" t="str">
         <v>null</v>
@@ -5660,7 +5660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D106" t="str">
         <v>null</v>
@@ -5710,7 +5710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D107" t="str">
         <v>null</v>
@@ -5760,7 +5760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D108" t="str">
         <v>null</v>
@@ -5810,7 +5810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D109" t="str">
         <v>null</v>
@@ -5860,7 +5860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D110" t="str">
         <v>null</v>
@@ -5910,7 +5910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D111" t="str">
         <v>null</v>
@@ -5960,7 +5960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D112" t="str">
         <v>null</v>
@@ -6010,7 +6010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D113" t="str">
         <v>null</v>
@@ -6022,7 +6022,7 @@
         <v>ZS rendement</v>
       </c>
       <c r="G113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H113" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6060,7 +6060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D114" t="str">
         <v>null</v>
@@ -6072,7 +6072,7 @@
         <v>null</v>
       </c>
       <c r="G114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H114" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6110,7 +6110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D115" t="str">
         <v>null</v>
@@ -6122,7 +6122,7 @@
         <v>null</v>
       </c>
       <c r="G115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H115" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6160,7 +6160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D116" t="str">
         <v>null</v>
@@ -6172,7 +6172,7 @@
         <v>null</v>
       </c>
       <c r="G116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H116" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6210,7 +6210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D117" t="str">
         <v>null</v>
@@ -6222,7 +6222,7 @@
         <v>null</v>
       </c>
       <c r="G117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H117" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6260,7 +6260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D118" t="str">
         <v>null</v>
@@ -6272,7 +6272,7 @@
         <v>null</v>
       </c>
       <c r="G118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H118" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6310,7 +6310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D119" t="str">
         <v>null</v>
@@ -6322,7 +6322,7 @@
         <v>null</v>
       </c>
       <c r="G119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H119" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -6360,7 +6360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D120" t="str">
         <v>null</v>
@@ -6410,7 +6410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D121" t="str">
         <v>null</v>
@@ -6460,7 +6460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D122" t="str">
         <v>null</v>
@@ -6510,7 +6510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D123" t="str">
         <v>null</v>
@@ -6560,7 +6560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D124" t="str">
         <v>null</v>
@@ -6610,7 +6610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D125" t="str">
         <v>null</v>
@@ -6660,7 +6660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D126" t="str">
         <v>null</v>
@@ -6710,7 +6710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D127" t="str">
         <v>null</v>
@@ -6760,7 +6760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D128" t="str">
         <v>null</v>
@@ -6810,7 +6810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D129" t="str">
         <v>null</v>
@@ -6860,7 +6860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D130" t="str">
         <v>null</v>
@@ -6910,7 +6910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D131" t="str">
         <v>null</v>
@@ -6960,7 +6960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D132" t="str">
         <v>null</v>
@@ -7010,7 +7010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D133" t="str">
         <v>null</v>
@@ -7060,7 +7060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D134" t="str">
         <v>null</v>
@@ -7110,7 +7110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D135" t="str">
         <v>null</v>
@@ -7160,7 +7160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D136" t="str">
         <v>null</v>
@@ -7210,7 +7210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D137" t="str">
         <v>null</v>
@@ -7260,7 +7260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D138" t="str">
         <v>null</v>
@@ -7310,7 +7310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D139" t="str">
         <v>null</v>
@@ -7360,7 +7360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D140" t="str">
         <v>null</v>
@@ -7410,7 +7410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D141" t="str">
         <v>null</v>
@@ -7460,7 +7460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D142" t="str">
         <v>null</v>
@@ -7510,7 +7510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D143" t="str">
         <v>null</v>
@@ -7560,7 +7560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D144" t="str">
         <v>null</v>
@@ -7572,7 +7572,7 @@
         <v>null</v>
       </c>
       <c r="G144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H144" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -7610,7 +7610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D145" t="str">
         <v>null</v>
@@ -7622,7 +7622,7 @@
         <v>null</v>
       </c>
       <c r="G145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H145" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -7660,7 +7660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D146" t="str">
         <v>null</v>
@@ -7672,7 +7672,7 @@
         <v>null</v>
       </c>
       <c r="G146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H146" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -7710,7 +7710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D147" t="str">
         <v>null</v>
@@ -7760,7 +7760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D148" t="str">
         <v>null</v>
@@ -7810,7 +7810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D149" t="str">
         <v>null</v>
@@ -7860,7 +7860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D150" t="str">
         <v>null</v>
@@ -7910,7 +7910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D151" t="str">
         <v>null</v>
@@ -7960,7 +7960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D152" t="str">
         <v>null</v>
@@ -8010,7 +8010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D153" t="str">
         <v>null</v>
@@ -8060,7 +8060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D154" t="str">
         <v>null</v>
@@ -8110,7 +8110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D155" t="str">
         <v>null</v>
@@ -8160,7 +8160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D156" t="str">
         <v>null</v>
@@ -8210,7 +8210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C157" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D157" t="str">
         <v>null</v>
@@ -8260,7 +8260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C158" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D158" t="str">
         <v>null</v>
@@ -8310,7 +8310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C159" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D159" t="str">
         <v>null</v>
@@ -8360,7 +8360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C160" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D160" t="str">
         <v>null</v>
@@ -8372,7 +8372,7 @@
         <v>null</v>
       </c>
       <c r="G160" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H160" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8410,7 +8410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C161" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D161" t="str">
         <v>null</v>
@@ -8422,7 +8422,7 @@
         <v>null</v>
       </c>
       <c r="G161" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H161" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8460,7 +8460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C162" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D162" t="str">
         <v>null</v>
@@ -8472,7 +8472,7 @@
         <v>null</v>
       </c>
       <c r="G162" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H162" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8510,7 +8510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C163" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D163" t="str">
         <v>null</v>
@@ -8522,7 +8522,7 @@
         <v>null</v>
       </c>
       <c r="G163" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H163" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8560,7 +8560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C164" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D164" t="str">
         <v>null</v>
@@ -8572,7 +8572,7 @@
         <v>null</v>
       </c>
       <c r="G164" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H164" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8610,7 +8610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C165" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D165" t="str">
         <v>null</v>
@@ -8622,7 +8622,7 @@
         <v>null</v>
       </c>
       <c r="G165" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H165" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8660,7 +8660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C166" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D166" t="str">
         <v>null</v>
@@ -8672,7 +8672,7 @@
         <v>null</v>
       </c>
       <c r="G166" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H166" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8710,7 +8710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C167" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D167" t="str">
         <v>null</v>
@@ -8722,7 +8722,7 @@
         <v>null</v>
       </c>
       <c r="G167" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H167" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8760,7 +8760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C168" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D168" t="str">
         <v>null</v>
@@ -8772,7 +8772,7 @@
         <v>null</v>
       </c>
       <c r="G168" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H168" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8810,7 +8810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C169" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D169" t="str">
         <v>null</v>
@@ -8822,7 +8822,7 @@
         <v>null</v>
       </c>
       <c r="G169" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H169" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8860,7 +8860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C170" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D170" t="str">
         <v>null</v>
@@ -8872,7 +8872,7 @@
         <v>null</v>
       </c>
       <c r="G170" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H170" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8910,7 +8910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C171" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D171" t="str">
         <v>null</v>
@@ -8922,7 +8922,7 @@
         <v>null</v>
       </c>
       <c r="G171" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H171" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -8960,7 +8960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C172" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D172" t="str">
         <v>null</v>
@@ -8972,7 +8972,7 @@
         <v>null</v>
       </c>
       <c r="G172" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H172" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9010,7 +9010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C173" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D173" t="str">
         <v>null</v>
@@ -9022,7 +9022,7 @@
         <v>null</v>
       </c>
       <c r="G173" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H173" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9060,7 +9060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C174" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D174" t="str">
         <v>null</v>
@@ -9072,7 +9072,7 @@
         <v>null</v>
       </c>
       <c r="G174" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H174" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9110,7 +9110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C175" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D175" t="str">
         <v>null</v>
@@ -9122,7 +9122,7 @@
         <v>null</v>
       </c>
       <c r="G175" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H175" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9160,7 +9160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C176" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D176" t="str">
         <v>null</v>
@@ -9172,7 +9172,7 @@
         <v>null</v>
       </c>
       <c r="G176" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H176" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9210,7 +9210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C177" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D177" t="str">
         <v>null</v>
@@ -9222,7 +9222,7 @@
         <v>null</v>
       </c>
       <c r="G177" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H177" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9260,7 +9260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C178" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D178" t="str">
         <v>null</v>
@@ -9272,7 +9272,7 @@
         <v>null</v>
       </c>
       <c r="G178" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H178" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9310,7 +9310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C179" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D179" t="str">
         <v>null</v>
@@ -9322,7 +9322,7 @@
         <v>null</v>
       </c>
       <c r="G179" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H179" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9360,7 +9360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C180" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D180" t="str">
         <v>null</v>
@@ -9372,7 +9372,7 @@
         <v>null</v>
       </c>
       <c r="G180" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H180" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9410,7 +9410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C181" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D181" t="str">
         <v>null</v>
@@ -9422,7 +9422,7 @@
         <v>null</v>
       </c>
       <c r="G181" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H181" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9460,7 +9460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C182" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D182" t="str">
         <v>null</v>
@@ -9472,7 +9472,7 @@
         <v>null</v>
       </c>
       <c r="G182" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H182" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9510,7 +9510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C183" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D183" t="str">
         <v>null</v>
@@ -9522,7 +9522,7 @@
         <v>null</v>
       </c>
       <c r="G183" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H183" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9560,7 +9560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C184" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D184" t="str">
         <v>null</v>
@@ -9572,7 +9572,7 @@
         <v>null</v>
       </c>
       <c r="G184" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H184" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9610,7 +9610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C185" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D185" t="str">
         <v>null</v>
@@ -9622,7 +9622,7 @@
         <v>null</v>
       </c>
       <c r="G185" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H185" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9660,7 +9660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C186" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D186" t="str">
         <v>null</v>
@@ -9672,7 +9672,7 @@
         <v>null</v>
       </c>
       <c r="G186" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H186" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9710,7 +9710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C187" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D187" t="str">
         <v>null</v>
@@ -9722,7 +9722,7 @@
         <v>null</v>
       </c>
       <c r="G187" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H187" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9760,7 +9760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C188" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D188" t="str">
         <v>null</v>
@@ -9772,7 +9772,7 @@
         <v>null</v>
       </c>
       <c r="G188" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H188" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9810,7 +9810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C189" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D189" t="str">
         <v>null</v>
@@ -9822,7 +9822,7 @@
         <v>null</v>
       </c>
       <c r="G189" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H189" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9860,7 +9860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C190" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D190" t="str">
         <v>null</v>
@@ -9872,7 +9872,7 @@
         <v>null</v>
       </c>
       <c r="G190" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H190" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -9910,7 +9910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C191" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D191" t="str">
         <v>null</v>
@@ -9960,7 +9960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C192" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D192" t="str">
         <v>null</v>
@@ -9972,7 +9972,7 @@
         <v>null</v>
       </c>
       <c r="G192" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H192" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10010,7 +10010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C193" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D193" t="str">
         <v>null</v>
@@ -10022,7 +10022,7 @@
         <v>null</v>
       </c>
       <c r="G193" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H193" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10060,7 +10060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C194" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D194" t="str">
         <v>null</v>
@@ -10072,7 +10072,7 @@
         <v>null</v>
       </c>
       <c r="G194" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H194" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10110,7 +10110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C195" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D195" t="str">
         <v>null</v>
@@ -10122,7 +10122,7 @@
         <v>null</v>
       </c>
       <c r="G195" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H195" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10160,7 +10160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C196" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D196" t="str">
         <v>null</v>
@@ -10172,7 +10172,7 @@
         <v>null</v>
       </c>
       <c r="G196" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H196" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10210,7 +10210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C197" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D197" t="str">
         <v>null</v>
@@ -10222,7 +10222,7 @@
         <v>null</v>
       </c>
       <c r="G197" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H197" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10260,7 +10260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C198" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D198" t="str">
         <v>null</v>
@@ -10310,7 +10310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C199" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D199" t="str">
         <v>null</v>
@@ -10360,7 +10360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C200" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D200" t="str">
         <v>null</v>
@@ -10372,7 +10372,7 @@
         <v>null</v>
       </c>
       <c r="G200" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H200" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10410,7 +10410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C201" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D201" t="str">
         <v>null</v>
@@ -10422,7 +10422,7 @@
         <v>null</v>
       </c>
       <c r="G201" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H201" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10460,7 +10460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C202" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D202" t="str">
         <v>null</v>
@@ -10472,7 +10472,7 @@
         <v>null</v>
       </c>
       <c r="G202" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H202" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10510,7 +10510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C203" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D203" t="str">
         <v>null</v>
@@ -10522,7 +10522,7 @@
         <v>null</v>
       </c>
       <c r="G203" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H203" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10560,7 +10560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C204" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D204" t="str">
         <v>null</v>
@@ -10572,7 +10572,7 @@
         <v>null</v>
       </c>
       <c r="G204" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H204" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10610,7 +10610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C205" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D205" t="str">
         <v>null</v>
@@ -10622,7 +10622,7 @@
         <v>null</v>
       </c>
       <c r="G205" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H205" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10660,7 +10660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C206" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D206" t="str">
         <v>null</v>
@@ -10672,7 +10672,7 @@
         <v>null</v>
       </c>
       <c r="G206" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H206" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10710,7 +10710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C207" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D207" t="str">
         <v>null</v>
@@ -10722,7 +10722,7 @@
         <v>null</v>
       </c>
       <c r="G207" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H207" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10760,7 +10760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C208" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D208" t="str">
         <v>null</v>
@@ -10772,7 +10772,7 @@
         <v>null</v>
       </c>
       <c r="G208" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H208" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10810,7 +10810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C209" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D209" t="str">
         <v>null</v>
@@ -10822,7 +10822,7 @@
         <v>null</v>
       </c>
       <c r="G209" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H209" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10860,7 +10860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C210" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D210" t="str">
         <v>null</v>
@@ -10872,7 +10872,7 @@
         <v>null</v>
       </c>
       <c r="G210" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H210" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10910,7 +10910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C211" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D211" t="str">
         <v>null</v>
@@ -10922,7 +10922,7 @@
         <v>null</v>
       </c>
       <c r="G211" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H211" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -10960,7 +10960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C212" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D212" t="str">
         <v>null</v>
@@ -10972,7 +10972,7 @@
         <v>null</v>
       </c>
       <c r="G212" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H212" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -11010,7 +11010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C213" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D213" t="str">
         <v>null</v>
@@ -11022,7 +11022,7 @@
         <v>null</v>
       </c>
       <c r="G213" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H213" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -11060,7 +11060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C214" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D214" t="str">
         <v>null</v>
@@ -11072,7 +11072,7 @@
         <v>null</v>
       </c>
       <c r="G214" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H214" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -11110,7 +11110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C215" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D215" t="str">
         <v>null</v>
@@ -11160,7 +11160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C216" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D216" t="str">
         <v>null</v>
@@ -11210,7 +11210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C217" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D217" t="str">
         <v>null</v>
@@ -11260,7 +11260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C218" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D218" t="str">
         <v>null</v>
@@ -11310,7 +11310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C219" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D219" t="str">
         <v>null</v>
@@ -11360,7 +11360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C220" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D220" t="str">
         <v>null</v>
@@ -11410,7 +11410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C221" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D221" t="str">
         <v>null</v>
@@ -11460,7 +11460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C222" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D222" t="str">
         <v>null</v>
@@ -11510,7 +11510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C223" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D223" t="str">
         <v>null</v>
@@ -11560,7 +11560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C224" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D224" t="str">
         <v>null</v>
@@ -11610,7 +11610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C225" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D225" t="str">
         <v>null</v>
@@ -11660,7 +11660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C226" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D226" t="str">
         <v>null</v>
@@ -11710,7 +11710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C227" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D227" t="str">
         <v>null</v>
@@ -11760,7 +11760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C228" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D228" t="str">
         <v>null</v>
@@ -11810,7 +11810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C229" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D229" t="str">
         <v>null</v>
@@ -11860,7 +11860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C230" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D230" t="str">
         <v>null</v>
@@ -11910,7 +11910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C231" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D231" t="str">
         <v>null</v>
@@ -11960,7 +11960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C232" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D232" t="str">
         <v>null</v>
@@ -12010,7 +12010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C233" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D233" t="str">
         <v>null</v>
@@ -12060,7 +12060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C234" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D234" t="str">
         <v>null</v>
@@ -12110,7 +12110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C235" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D235" t="str">
         <v>null</v>
@@ -12160,7 +12160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C236" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D236" t="str">
         <v>null</v>
@@ -12210,7 +12210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C237" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D237" t="str">
         <v>null</v>
@@ -12260,7 +12260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C238" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D238" t="str">
         <v>null</v>
@@ -12310,7 +12310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C239" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D239" t="str">
         <v>null</v>
@@ -12360,7 +12360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C240" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D240" t="str">
         <v>null</v>
@@ -12410,7 +12410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C241" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D241" t="str">
         <v>null</v>
@@ -12422,7 +12422,7 @@
         <v>null</v>
       </c>
       <c r="G241" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H241" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12460,7 +12460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C242" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D242" t="str">
         <v>null</v>
@@ -12472,7 +12472,7 @@
         <v>null</v>
       </c>
       <c r="G242" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H242" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12510,7 +12510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C243" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D243" t="str">
         <v>null</v>
@@ -12522,7 +12522,7 @@
         <v>null</v>
       </c>
       <c r="G243" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H243" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12560,7 +12560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C244" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D244" t="str">
         <v>null</v>
@@ -12572,7 +12572,7 @@
         <v>null</v>
       </c>
       <c r="G244" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H244" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12610,7 +12610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C245" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D245" t="str">
         <v>null</v>
@@ -12622,7 +12622,7 @@
         <v>null</v>
       </c>
       <c r="G245" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H245" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12660,7 +12660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C246" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D246" t="str">
         <v>null</v>
@@ -12672,7 +12672,7 @@
         <v>null</v>
       </c>
       <c r="G246" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H246" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12710,7 +12710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C247" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D247" t="str">
         <v>null</v>
@@ -12722,7 +12722,7 @@
         <v>null</v>
       </c>
       <c r="G247" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H247" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12760,7 +12760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C248" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D248" t="str">
         <v>null</v>
@@ -12772,7 +12772,7 @@
         <v>null</v>
       </c>
       <c r="G248" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H248" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12810,7 +12810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C249" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D249" t="str">
         <v>null</v>
@@ -12822,7 +12822,7 @@
         <v>null</v>
       </c>
       <c r="G249" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H249" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12860,7 +12860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C250" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D250" t="str">
         <v>null</v>
@@ -12872,7 +12872,7 @@
         <v>null</v>
       </c>
       <c r="G250" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H250" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12910,7 +12910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C251" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D251" t="str">
         <v>null</v>
@@ -12922,7 +12922,7 @@
         <v>null</v>
       </c>
       <c r="G251" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H251" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -12960,7 +12960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C252" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D252" t="str">
         <v>null</v>
@@ -12972,7 +12972,7 @@
         <v>null</v>
       </c>
       <c r="G252" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H252" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13010,7 +13010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C253" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D253" t="str">
         <v>null</v>
@@ -13022,7 +13022,7 @@
         <v>null</v>
       </c>
       <c r="G253" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H253" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13060,7 +13060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C254" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D254" t="str">
         <v>null</v>
@@ -13072,7 +13072,7 @@
         <v>null</v>
       </c>
       <c r="G254" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H254" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13110,7 +13110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C255" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D255" t="str">
         <v>null</v>
@@ -13122,7 +13122,7 @@
         <v>null</v>
       </c>
       <c r="G255" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H255" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13160,7 +13160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C256" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D256" t="str">
         <v>null</v>
@@ -13172,7 +13172,7 @@
         <v>null</v>
       </c>
       <c r="G256" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H256" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13210,7 +13210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C257" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D257" t="str">
         <v>null</v>
@@ -13222,7 +13222,7 @@
         <v>null</v>
       </c>
       <c r="G257" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H257" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13260,7 +13260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C258" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D258" t="str">
         <v>null</v>
@@ -13272,7 +13272,7 @@
         <v>null</v>
       </c>
       <c r="G258" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H258" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -13310,7 +13310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C259" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D259" t="str">
         <v>null</v>
@@ -13360,7 +13360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C260" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D260" t="str">
         <v>null</v>
@@ -13410,7 +13410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C261" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D261" t="str">
         <v>null</v>
@@ -13460,7 +13460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C262" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D262" t="str">
         <v>null</v>
@@ -13510,7 +13510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C263" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D263" t="str">
         <v>null</v>
@@ -13560,7 +13560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C264" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D264" t="str">
         <v>null</v>
@@ -13610,7 +13610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C265" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D265" t="str">
         <v>null</v>
@@ -13660,7 +13660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C266" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D266" t="str">
         <v>null</v>
@@ -13710,7 +13710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C267" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D267" t="str">
         <v>null</v>
@@ -13760,7 +13760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C268" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D268" t="str">
         <v>null</v>
@@ -13810,7 +13810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C269" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D269" t="str">
         <v>null</v>
@@ -13860,7 +13860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C270" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D270" t="str">
         <v>null</v>
@@ -13910,7 +13910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C271" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D271" t="str">
         <v>null</v>
@@ -13960,7 +13960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C272" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D272" t="str">
         <v>null</v>
@@ -14010,7 +14010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C273" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D273" t="str">
         <v>null</v>
@@ -14022,7 +14022,7 @@
         <v>null</v>
       </c>
       <c r="G273" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H273" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14060,7 +14060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C274" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D274" t="str">
         <v>null</v>
@@ -14072,7 +14072,7 @@
         <v>null</v>
       </c>
       <c r="G274" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H274" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14110,7 +14110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C275" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D275" t="str">
         <v>null</v>
@@ -14122,7 +14122,7 @@
         <v>null</v>
       </c>
       <c r="G275" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H275" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14160,7 +14160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C276" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D276" t="str">
         <v>null</v>
@@ -14172,7 +14172,7 @@
         <v>null</v>
       </c>
       <c r="G276" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H276" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14210,7 +14210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C277" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D277" t="str">
         <v>null</v>
@@ -14222,7 +14222,7 @@
         <v>null</v>
       </c>
       <c r="G277" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H277" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14260,7 +14260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C278" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D278" t="str">
         <v>null</v>
@@ -14272,7 +14272,7 @@
         <v>null</v>
       </c>
       <c r="G278" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H278" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14310,7 +14310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C279" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D279" t="str">
         <v>null</v>
@@ -14322,7 +14322,7 @@
         <v>null</v>
       </c>
       <c r="G279" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H279" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14360,7 +14360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C280" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D280" t="str">
         <v>null</v>
@@ -14372,7 +14372,7 @@
         <v>null</v>
       </c>
       <c r="G280" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H280" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14410,7 +14410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C281" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D281" t="str">
         <v>null</v>
@@ -14422,7 +14422,7 @@
         <v>null</v>
       </c>
       <c r="G281" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H281" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14460,7 +14460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C282" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D282" t="str">
         <v>null</v>
@@ -14472,7 +14472,7 @@
         <v>null</v>
       </c>
       <c r="G282" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H282" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14510,7 +14510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C283" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D283" t="str">
         <v>null</v>
@@ -14522,7 +14522,7 @@
         <v>null</v>
       </c>
       <c r="G283" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H283" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14560,7 +14560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C284" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D284" t="str">
         <v>null</v>
@@ -14572,7 +14572,7 @@
         <v>null</v>
       </c>
       <c r="G284" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H284" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14610,7 +14610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C285" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D285" t="str">
         <v>null</v>
@@ -14622,7 +14622,7 @@
         <v>null</v>
       </c>
       <c r="G285" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H285" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14660,7 +14660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C286" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D286" t="str">
         <v>null</v>
@@ -14672,7 +14672,7 @@
         <v>null</v>
       </c>
       <c r="G286" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H286" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14710,7 +14710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C287" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D287" t="str">
         <v>null</v>
@@ -14722,7 +14722,7 @@
         <v>null</v>
       </c>
       <c r="G287" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H287" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14760,7 +14760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C288" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D288" t="str">
         <v>null</v>
@@ -14772,7 +14772,7 @@
         <v>null</v>
       </c>
       <c r="G288" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H288" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14810,7 +14810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C289" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D289" t="str">
         <v>null</v>
@@ -14822,7 +14822,7 @@
         <v>null</v>
       </c>
       <c r="G289" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H289" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14860,7 +14860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C290" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D290" t="str">
         <v>null</v>
@@ -14872,7 +14872,7 @@
         <v>null</v>
       </c>
       <c r="G290" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H290" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14910,7 +14910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C291" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D291" t="str">
         <v>null</v>
@@ -14922,7 +14922,7 @@
         <v>null</v>
       </c>
       <c r="G291" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H291" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -14960,7 +14960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C292" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D292" t="str">
         <v>null</v>
@@ -14972,7 +14972,7 @@
         <v>null</v>
       </c>
       <c r="G292" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H292" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15010,7 +15010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C293" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D293" t="str">
         <v>null</v>
@@ -15022,7 +15022,7 @@
         <v>null</v>
       </c>
       <c r="G293" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H293" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15060,7 +15060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C294" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D294" t="str">
         <v>null</v>
@@ -15072,7 +15072,7 @@
         <v>null</v>
       </c>
       <c r="G294" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H294" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15110,7 +15110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C295" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D295" t="str">
         <v>null</v>
@@ -15122,7 +15122,7 @@
         <v>null</v>
       </c>
       <c r="G295" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H295" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15160,7 +15160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C296" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D296" t="str">
         <v>null</v>
@@ -15172,7 +15172,7 @@
         <v>null</v>
       </c>
       <c r="G296" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H296" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15210,7 +15210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C297" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D297" t="str">
         <v>null</v>
@@ -15222,7 +15222,7 @@
         <v>null</v>
       </c>
       <c r="G297" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H297" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15260,7 +15260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C298" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D298" t="str">
         <v>null</v>
@@ -15272,7 +15272,7 @@
         <v>null</v>
       </c>
       <c r="G298" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H298" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15310,7 +15310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C299" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D299" t="str">
         <v>null</v>
@@ -15322,7 +15322,7 @@
         <v>null</v>
       </c>
       <c r="G299" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H299" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15360,7 +15360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C300" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D300" t="str">
         <v>null</v>
@@ -15372,7 +15372,7 @@
         <v>null</v>
       </c>
       <c r="G300" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H300" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15410,7 +15410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C301" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D301" t="str">
         <v>null</v>
@@ -15422,7 +15422,7 @@
         <v>null</v>
       </c>
       <c r="G301" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H301" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15460,7 +15460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C302" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D302" t="str">
         <v>null</v>
@@ -15472,7 +15472,7 @@
         <v>null</v>
       </c>
       <c r="G302" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H302" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15510,7 +15510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C303" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D303" t="str">
         <v>null</v>
@@ -15522,7 +15522,7 @@
         <v>null</v>
       </c>
       <c r="G303" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H303" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15560,7 +15560,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C304" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D304" t="str">
         <v>null</v>
@@ -15572,7 +15572,7 @@
         <v>null</v>
       </c>
       <c r="G304" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H304" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15610,7 +15610,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C305" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D305" t="str">
         <v>null</v>
@@ -15622,7 +15622,7 @@
         <v>null</v>
       </c>
       <c r="G305" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H305" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15660,7 +15660,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C306" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D306" t="str">
         <v>null</v>
@@ -15672,7 +15672,7 @@
         <v>null</v>
       </c>
       <c r="G306" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H306" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15710,7 +15710,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C307" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D307" t="str">
         <v>null</v>
@@ -15722,7 +15722,7 @@
         <v>null</v>
       </c>
       <c r="G307" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H307" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15760,7 +15760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C308" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D308" t="str">
         <v>null</v>
@@ -15772,7 +15772,7 @@
         <v>null</v>
       </c>
       <c r="G308" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H308" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15810,7 +15810,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C309" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D309" t="str">
         <v>null</v>
@@ -15822,7 +15822,7 @@
         <v>null</v>
       </c>
       <c r="G309" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H309" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15860,7 +15860,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C310" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D310" t="str">
         <v>null</v>
@@ -15872,7 +15872,7 @@
         <v>null</v>
       </c>
       <c r="G310" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H310" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15910,7 +15910,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C311" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D311" t="str">
         <v>null</v>
@@ -15922,7 +15922,7 @@
         <v>null</v>
       </c>
       <c r="G311" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H311" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -15960,7 +15960,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C312" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D312" t="str">
         <v>null</v>
@@ -15972,7 +15972,7 @@
         <v>null</v>
       </c>
       <c r="G312" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H312" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16010,7 +16010,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C313" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D313" t="str">
         <v>null</v>
@@ -16022,7 +16022,7 @@
         <v>null</v>
       </c>
       <c r="G313" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H313" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16060,7 +16060,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C314" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D314" t="str">
         <v>null</v>
@@ -16072,7 +16072,7 @@
         <v>null</v>
       </c>
       <c r="G314" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H314" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16110,7 +16110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C315" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D315" t="str">
         <v>null</v>
@@ -16122,7 +16122,7 @@
         <v>null</v>
       </c>
       <c r="G315" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H315" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16160,7 +16160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C316" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D316" t="str">
         <v>null</v>
@@ -16172,7 +16172,7 @@
         <v>null</v>
       </c>
       <c r="G316" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H316" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16210,7 +16210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C317" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D317" t="str">
         <v>null</v>
@@ -16222,7 +16222,7 @@
         <v>null</v>
       </c>
       <c r="G317" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H317" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16260,7 +16260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C318" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D318" t="str">
         <v>null</v>
@@ -16272,7 +16272,7 @@
         <v>null</v>
       </c>
       <c r="G318" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H318" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16310,7 +16310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C319" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D319" t="str">
         <v>null</v>
@@ -16322,7 +16322,7 @@
         <v>null</v>
       </c>
       <c r="G319" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H319" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16360,7 +16360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C320" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D320" t="str">
         <v>null</v>
@@ -16372,7 +16372,7 @@
         <v>null</v>
       </c>
       <c r="G320" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H320" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16410,7 +16410,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C321" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D321" t="str">
         <v>null</v>
@@ -16422,7 +16422,7 @@
         <v>null</v>
       </c>
       <c r="G321" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H321" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16460,7 +16460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C322" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D322" t="str">
         <v>null</v>
@@ -16472,7 +16472,7 @@
         <v>null</v>
       </c>
       <c r="G322" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H322" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16510,7 +16510,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C323" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="D323" t="str">
         <v>null</v>
@@ -16522,7 +16522,7 @@
         <v>null</v>
       </c>
       <c r="G323" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="H323" t="str">
         <v>http://www.eionet.europa.eu/gemet/concept/1322|http://www.eionet.europa.eu/gemet/concept/6229</v>
@@ -16554,7 +16554,7 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemisch</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fysico-chemische-eigenschap</v>
       </c>
       <c r="B324" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
